--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Lactofen/Data Sheet_A92_Lactofen POST.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Lactofen/Data Sheet_A92_Lactofen POST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Lactofen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{D42ED746-3FCD-481B-8095-34E35B9637F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8A26EF6-66E7-4011-BE36-A0A04614381C}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{D42ED746-3FCD-481B-8095-34E35B9637F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C94368A5-BDA7-497E-9CF8-C145FAEF788E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BAC4E19-4AD8-48D8-8C8E-2E087F05C852}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,12 +614,8 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">

--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Lactofen/Data Sheet_A92_Lactofen POST.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Lactofen/Data Sheet_A92_Lactofen POST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Lactofen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{D42ED746-3FCD-481B-8095-34E35B9637F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C94368A5-BDA7-497E-9CF8-C145FAEF788E}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{D42ED746-3FCD-481B-8095-34E35B9637F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{366614C6-7F88-4731-95FA-AF3371D6C726}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BAC4E19-4AD8-48D8-8C8E-2E087F05C852}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="lac" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lac!$A$1:$I$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lac!$A$1:$K$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,12 @@
   <si>
     <t>A82</t>
   </si>
+  <si>
+    <t>percentbio</t>
+  </si>
+  <si>
+    <t>biored</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +184,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3914A6-8438-4DBF-A9A2-9BDB680084C0}">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,15 +535,17 @@
     <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +573,14 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -591,8 +608,14 @@
       <c r="I2" s="3">
         <v>2.4820000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -616,8 +639,14 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -645,8 +674,14 @@
       <c r="I4" s="3">
         <v>2.2839999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -674,8 +709,14 @@
       <c r="I5" s="3">
         <v>2.6840000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>49</v>
       </c>
@@ -703,8 +744,14 @@
       <c r="I6" s="3">
         <v>4.1230000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>50</v>
       </c>
@@ -732,8 +779,14 @@
       <c r="I7" s="3">
         <v>2.633</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>51</v>
       </c>
@@ -761,8 +814,14 @@
       <c r="I8" s="3">
         <v>4.7779999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>52</v>
       </c>
@@ -790,8 +849,16 @@
       <c r="I9" s="3">
         <v>1.224</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <f t="shared" ref="J7:J49" si="0">I9/AVERAGE($I$2:$I$5)</f>
+        <v>0.49288590604026844</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" ref="K7:K49" si="1">1-(I9/AVERAGE($I$2:$I$5))</f>
+        <v>0.50711409395973162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>53</v>
       </c>
@@ -819,8 +886,14 @@
       <c r="I10" s="3">
         <v>2.488</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>54</v>
       </c>
@@ -848,8 +921,16 @@
       <c r="I11" s="3">
         <v>1.7190000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.69221476510067115</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30778523489932885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>55</v>
       </c>
@@ -877,8 +958,16 @@
       <c r="I12" s="3">
         <v>1.7490000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.70429530201342283</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.29570469798657717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>56</v>
       </c>
@@ -906,8 +995,14 @@
       <c r="I13" s="3">
         <v>3.3050000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>57</v>
       </c>
@@ -935,8 +1030,16 @@
       <c r="I14" s="3">
         <v>1.325</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53355704697986572</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.46644295302013428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>58</v>
       </c>
@@ -964,8 +1067,14 @@
       <c r="I15" s="3">
         <v>2.9910000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>59</v>
       </c>
@@ -993,8 +1102,14 @@
       <c r="I16" s="3">
         <v>3.4750000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>60</v>
       </c>
@@ -1022,8 +1137,14 @@
       <c r="I17" s="3">
         <v>3.4980000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>61</v>
       </c>
@@ -1051,8 +1172,16 @@
       <c r="I18" s="3">
         <v>1.3129999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52872483221476507</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.47127516778523493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>62</v>
       </c>
@@ -1080,8 +1209,16 @@
       <c r="I19" s="3">
         <v>0.34799999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14013422818791946</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.85986577181208057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>63</v>
       </c>
@@ -1109,8 +1246,16 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>64</v>
       </c>
@@ -1138,8 +1283,14 @@
       <c r="I21" s="3">
         <v>3.3860000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>65</v>
       </c>
@@ -1167,8 +1318,14 @@
       <c r="I22" s="3">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>66</v>
       </c>
@@ -1196,8 +1353,16 @@
       <c r="I23" s="3">
         <v>1.794</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72241610738255035</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.27758389261744965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>67</v>
       </c>
@@ -1225,8 +1390,16 @@
       <c r="I24" s="3">
         <v>2.1949999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8838926174496643</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1161073825503357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>68</v>
       </c>
@@ -1254,8 +1427,14 @@
       <c r="I25" s="3">
         <v>3.2109999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>69</v>
       </c>
@@ -1283,8 +1462,16 @@
       <c r="I26" s="3">
         <v>1.5049999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.60604026845637582</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.39395973154362418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>70</v>
       </c>
@@ -1312,8 +1499,16 @@
       <c r="I27" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7315436241610735E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.98268456375838931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>71</v>
       </c>
@@ -1341,8 +1536,16 @@
       <c r="I28" s="3">
         <v>0.41299999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16630872483221476</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83369127516778518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>72</v>
       </c>
@@ -1370,8 +1573,16 @@
       <c r="I29" s="3">
         <v>1.5049999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.60604026845637582</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="1"/>
+        <v>0.39395973154362418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>73</v>
       </c>
@@ -1399,8 +1610,16 @@
       <c r="I30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>74</v>
       </c>
@@ -1428,8 +1647,16 @@
       <c r="I31" s="3">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3020134228187917E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90697986577181211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>75</v>
       </c>
@@ -1457,8 +1684,16 @@
       <c r="I32" s="3">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="4">
+        <f t="shared" si="0"/>
+        <v>8.859060402684564E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="1"/>
+        <v>0.9114093959731544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>76</v>
       </c>
@@ -1486,8 +1721,16 @@
       <c r="I33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>77</v>
       </c>
@@ -1515,8 +1758,16 @@
       <c r="I34" s="3">
         <v>0.182</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3288590604026843E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.92671140939597318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>78</v>
       </c>
@@ -1544,8 +1795,16 @@
       <c r="I35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>79</v>
       </c>
@@ -1573,8 +1832,16 @@
       <c r="I36" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7382550335570473E-2</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="1"/>
+        <v>0.97261744966442953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>80</v>
       </c>
@@ -1602,8 +1869,16 @@
       <c r="I37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>81</v>
       </c>
@@ -1631,8 +1906,16 @@
       <c r="I38" s="3">
         <v>0.129</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1946308724832212E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="1"/>
+        <v>0.94805369127516781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>82</v>
       </c>
@@ -1660,8 +1943,16 @@
       <c r="I39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>83</v>
       </c>
@@ -1689,8 +1980,16 @@
       <c r="I40" s="3">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6241610738255034E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="1"/>
+        <v>0.96375838926174495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>84</v>
       </c>
@@ -1718,8 +2017,16 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>85</v>
       </c>
@@ -1747,8 +2054,16 @@
       <c r="I42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>86</v>
       </c>
@@ -1776,8 +2091,16 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>87</v>
       </c>
@@ -1805,8 +2128,16 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>88</v>
       </c>
@@ -1834,8 +2165,16 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>89</v>
       </c>
@@ -1863,8 +2202,16 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>90</v>
       </c>
@@ -1892,8 +2239,16 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>91</v>
       </c>
@@ -1921,8 +2276,16 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>92</v>
       </c>
@@ -1950,8 +2313,16 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>93</v>
       </c>
@@ -1979,8 +2350,14 @@
       <c r="I50" s="3">
         <v>3.5880000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>94</v>
       </c>
@@ -2008,8 +2385,14 @@
       <c r="I51" s="3">
         <v>3.5579999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>95</v>
       </c>
@@ -2037,8 +2420,14 @@
       <c r="I52" s="3">
         <v>3.8479999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>96</v>
       </c>
@@ -2066,8 +2455,14 @@
       <c r="I53" s="3">
         <v>3.2410000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>141</v>
       </c>
@@ -2095,8 +2490,16 @@
       <c r="I54" s="3">
         <v>0.373</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4">
+        <f>I54/AVERAGE($I$50:$I$53)</f>
+        <v>0.10481208289427468</v>
+      </c>
+      <c r="K54" s="4">
+        <f>1-(I54/AVERAGE($I$50:$I$53))</f>
+        <v>0.89518791710572532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>142</v>
       </c>
@@ -2124,8 +2527,14 @@
       <c r="I55" s="3">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>143</v>
       </c>
@@ -2153,8 +2562,16 @@
       <c r="I56" s="3">
         <v>2.8940000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <f t="shared" ref="J55:J97" si="2">I56/AVERAGE($I$50:$I$53)</f>
+        <v>0.81320688443976119</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" ref="K55:K97" si="3">1-(I56/AVERAGE($I$50:$I$53))</f>
+        <v>0.18679311556023881</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>144</v>
       </c>
@@ -2182,8 +2599,16 @@
       <c r="I57" s="3">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4">
+        <f t="shared" si="2"/>
+        <v>0.19276431331225855</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="3"/>
+        <v>0.80723568668774148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>145</v>
       </c>
@@ -2211,8 +2636,16 @@
       <c r="I58" s="3">
         <v>1.129</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4">
+        <f t="shared" si="2"/>
+        <v>0.31724622409553915</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="3"/>
+        <v>0.68275377590446085</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>146</v>
       </c>
@@ -2240,8 +2673,16 @@
       <c r="I59" s="3">
         <v>1.788</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <f t="shared" si="2"/>
+        <v>0.50242360379346684</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="3"/>
+        <v>0.49757639620653316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>147</v>
       </c>
@@ -2269,8 +2710,16 @@
       <c r="I60" s="3">
         <v>1.6479999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4">
+        <f t="shared" si="2"/>
+        <v>0.46308394801545488</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="3"/>
+        <v>0.53691605198454506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>148</v>
       </c>
@@ -2298,8 +2747,16 @@
       <c r="I61" s="3">
         <v>1.117</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4">
+        <f t="shared" si="2"/>
+        <v>0.31387425360028098</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="3"/>
+        <v>0.68612574639971902</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>149</v>
       </c>
@@ -2327,8 +2784,16 @@
       <c r="I62" s="3">
         <v>0.158</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4397611520899195E-2</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95560238847910084</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>150</v>
       </c>
@@ -2356,8 +2821,16 @@
       <c r="I63" s="3">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4281700035124693E-2</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="3"/>
+        <v>0.96571829996487535</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>151</v>
       </c>
@@ -2385,8 +2858,16 @@
       <c r="I64" s="3">
         <v>1.006</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28268352651914297</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="3"/>
+        <v>0.71731647348085703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>152</v>
       </c>
@@ -2414,8 +2895,16 @@
       <c r="I65" s="3">
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4">
+        <f t="shared" si="2"/>
+        <v>0.16522655426765015</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="3"/>
+        <v>0.83477344573234991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>153</v>
       </c>
@@ -2443,8 +2932,16 @@
       <c r="I66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>154</v>
       </c>
@@ -2472,8 +2969,16 @@
       <c r="I67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>155</v>
       </c>
@@ -2501,8 +3006,16 @@
       <c r="I68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>156</v>
       </c>
@@ -2530,8 +3043,16 @@
       <c r="I69" s="3">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4">
+        <f t="shared" si="2"/>
+        <v>5.8447488584474884E-2</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="3"/>
+        <v>0.9415525114155251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>157</v>
       </c>
@@ -2559,8 +3080,16 @@
       <c r="I70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>158</v>
       </c>
@@ -2588,8 +3117,16 @@
       <c r="I71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>159</v>
       </c>
@@ -2617,8 +3154,16 @@
       <c r="I72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>160</v>
       </c>
@@ -2646,8 +3191,16 @@
       <c r="I73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>161</v>
       </c>
@@ -2675,8 +3228,16 @@
       <c r="I74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>162</v>
       </c>
@@ -2704,8 +3265,16 @@
       <c r="I75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>163</v>
       </c>
@@ -2733,8 +3302,16 @@
       <c r="I76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>164</v>
       </c>
@@ -2762,8 +3339,16 @@
       <c r="I77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>165</v>
       </c>
@@ -2791,8 +3376,16 @@
       <c r="I78" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>166</v>
       </c>
@@ -2820,8 +3413,16 @@
       <c r="I79" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>167</v>
       </c>
@@ -2849,8 +3450,16 @@
       <c r="I80" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>168</v>
       </c>
@@ -2878,8 +3487,16 @@
       <c r="I81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>169</v>
       </c>
@@ -2907,8 +3524,16 @@
       <c r="I82" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>170</v>
       </c>
@@ -2936,8 +3561,16 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>171</v>
       </c>
@@ -2965,8 +3598,16 @@
       <c r="I84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>172</v>
       </c>
@@ -2994,8 +3635,16 @@
       <c r="I85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>173</v>
       </c>
@@ -3023,8 +3672,16 @@
       <c r="I86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>174</v>
       </c>
@@ -3052,8 +3709,16 @@
       <c r="I87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>175</v>
       </c>
@@ -3081,8 +3746,16 @@
       <c r="I88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>176</v>
       </c>
@@ -3110,8 +3783,16 @@
       <c r="I89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>177</v>
       </c>
@@ -3139,8 +3820,16 @@
       <c r="I90" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>178</v>
       </c>
@@ -3168,8 +3857,16 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>179</v>
       </c>
@@ -3197,8 +3894,16 @@
       <c r="I92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>180</v>
       </c>
@@ -3226,8 +3931,16 @@
       <c r="I93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>181</v>
       </c>
@@ -3255,8 +3968,16 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>182</v>
       </c>
@@ -3284,8 +4005,16 @@
       <c r="I95" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>183</v>
       </c>
@@ -3313,8 +4042,16 @@
       <c r="I96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>184</v>
       </c>
@@ -3342,8 +4079,16 @@
       <c r="I97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -3371,8 +4116,14 @@
       <c r="I98" s="3">
         <v>3.0089999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -3400,8 +4151,14 @@
       <c r="I99" s="3">
         <v>3.8889999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="4">
+        <v>1</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>3</v>
       </c>
@@ -3429,8 +4186,14 @@
       <c r="I100" s="3">
         <v>3.6880000000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>4</v>
       </c>
@@ -3458,8 +4221,14 @@
       <c r="I101" s="3">
         <v>2.871</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="4">
+        <v>1</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>49</v>
       </c>
@@ -3487,8 +4256,16 @@
       <c r="I102" s="3">
         <v>2.0150000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="4">
+        <f>I102/AVERAGE($I$98:$I$101)</f>
+        <v>0.59894478709965071</v>
+      </c>
+      <c r="K102" s="4">
+        <f>1-(I102/AVERAGE($I$98:$I$101))</f>
+        <v>0.40105521290034929</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>50</v>
       </c>
@@ -3516,8 +4293,14 @@
       <c r="I103" s="3">
         <v>3.7730000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>51</v>
       </c>
@@ -3545,8 +4328,14 @@
       <c r="I104" s="3">
         <v>4.4349999999999996</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="4">
+        <v>1</v>
+      </c>
+      <c r="K104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>52</v>
       </c>
@@ -3574,8 +4363,14 @@
       <c r="I105" s="3">
         <v>4.6920000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="4">
+        <v>1</v>
+      </c>
+      <c r="K105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>53</v>
       </c>
@@ -3603,8 +4398,14 @@
       <c r="I106" s="3">
         <v>3.746</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="4">
+        <v>1</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>54</v>
       </c>
@@ -3632,8 +4433,14 @@
       <c r="I107" s="3">
         <v>4.4950000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>55</v>
       </c>
@@ -3661,8 +4468,14 @@
       <c r="I108" s="3">
         <v>3.7770000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="4">
+        <v>1</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>56</v>
       </c>
@@ -3690,8 +4503,14 @@
       <c r="I109" s="3">
         <v>3.577</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="4">
+        <v>1</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>57</v>
       </c>
@@ -3719,8 +4538,14 @@
       <c r="I110" s="3">
         <v>4.2619999999999996</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="4">
+        <v>1</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>58</v>
       </c>
@@ -3748,8 +4573,14 @@
       <c r="I111" s="3">
         <v>3.6509999999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="4">
+        <v>1</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>59</v>
       </c>
@@ -3777,8 +4608,14 @@
       <c r="I112" s="3">
         <v>3.9929999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="4">
+        <v>1</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>60</v>
       </c>
@@ -3806,8 +4643,16 @@
       <c r="I113" s="3">
         <v>2.2719999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="4">
+        <f t="shared" ref="J103:J145" si="4">I113/AVERAGE($I$98:$I$101)</f>
+        <v>0.67533625622352667</v>
+      </c>
+      <c r="K113" s="4">
+        <f t="shared" ref="K103:K145" si="5">1-(I113/AVERAGE($I$98:$I$101))</f>
+        <v>0.32466374377647333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>61</v>
       </c>
@@ -3835,8 +4680,16 @@
       <c r="I114" s="3">
         <v>2.1150000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="4">
+        <f t="shared" si="4"/>
+        <v>0.62866909415174266</v>
+      </c>
+      <c r="K114" s="4">
+        <f t="shared" si="5"/>
+        <v>0.37133090584825734</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>62</v>
       </c>
@@ -3864,8 +4717,16 @@
       <c r="I115" s="3">
         <v>1.095</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="4">
+        <f t="shared" si="4"/>
+        <v>0.32548116222040568</v>
+      </c>
+      <c r="K115" s="4">
+        <f t="shared" si="5"/>
+        <v>0.67451883777959432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>63</v>
       </c>
@@ -3893,8 +4754,16 @@
       <c r="I116" s="3">
         <v>3.048</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="4">
+        <f t="shared" si="4"/>
+        <v>0.90599687894775949</v>
+      </c>
+      <c r="K116" s="4">
+        <f t="shared" si="5"/>
+        <v>9.4003121052240513E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>64</v>
       </c>
@@ -3922,8 +4791,16 @@
       <c r="I117" s="3">
         <v>1.3680000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="4">
+        <f t="shared" si="4"/>
+        <v>0.40662852047261649</v>
+      </c>
+      <c r="K117" s="4">
+        <f t="shared" si="5"/>
+        <v>0.59337147952738345</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>65</v>
       </c>
@@ -3951,8 +4828,16 @@
       <c r="I118" s="3">
         <v>2.431</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="4">
+        <f t="shared" si="4"/>
+        <v>0.72259790443635286</v>
+      </c>
+      <c r="K118" s="4">
+        <f t="shared" si="5"/>
+        <v>0.27740209556364714</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>66</v>
       </c>
@@ -3980,8 +4865,16 @@
       <c r="I119" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>67</v>
       </c>
@@ -4009,8 +4902,16 @@
       <c r="I120" s="3">
         <v>3.0419999999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="4">
+        <f t="shared" si="4"/>
+        <v>0.90421342052463394</v>
+      </c>
+      <c r="K120" s="4">
+        <f t="shared" si="5"/>
+        <v>9.5786579475366063E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>68</v>
       </c>
@@ -4038,8 +4939,16 @@
       <c r="I121" s="3">
         <v>1.5629999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="4">
+        <f t="shared" si="4"/>
+        <v>0.46459091922419554</v>
+      </c>
+      <c r="K121" s="4">
+        <f t="shared" si="5"/>
+        <v>0.53540908077580451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>69</v>
       </c>
@@ -4067,8 +4976,16 @@
       <c r="I122" s="3">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10552129003492605</v>
+      </c>
+      <c r="K122" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89447870996507395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>70</v>
       </c>
@@ -4096,8 +5013,16 @@
       <c r="I123" s="3">
         <v>1.5309999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45507914096752616</v>
+      </c>
+      <c r="K123" s="4">
+        <f t="shared" si="5"/>
+        <v>0.54492085903247389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>71</v>
       </c>
@@ -4125,8 +5050,16 @@
       <c r="I124" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0509771865943376E-2</v>
+      </c>
+      <c r="K124" s="4">
+        <f t="shared" si="5"/>
+        <v>0.97949022813405662</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>72</v>
       </c>
@@ -4154,8 +5087,16 @@
       <c r="I125" s="3">
         <v>0.129</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="4">
+        <f t="shared" si="4"/>
+        <v>3.8344356097198481E-2</v>
+      </c>
+      <c r="K125" s="4">
+        <f t="shared" si="5"/>
+        <v>0.96165564390280156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>73</v>
       </c>
@@ -4183,8 +5124,16 @@
       <c r="I126" s="3">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3184959500631642E-2</v>
+      </c>
+      <c r="K126" s="4">
+        <f t="shared" si="5"/>
+        <v>0.9768150404993684</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>74</v>
       </c>
@@ -4212,8 +5161,16 @@
       <c r="I127" s="3">
         <v>2.581</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="4">
+        <f t="shared" si="4"/>
+        <v>0.7671843650144905</v>
+      </c>
+      <c r="K127" s="4">
+        <f t="shared" si="5"/>
+        <v>0.2328156349855095</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>75</v>
       </c>
@@ -4241,8 +5198,16 @@
       <c r="I128" s="3">
         <v>1.6970000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="4">
+        <f t="shared" si="4"/>
+        <v>0.50442149067399866</v>
+      </c>
+      <c r="K128" s="4">
+        <f t="shared" si="5"/>
+        <v>0.49557850932600134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>76</v>
       </c>
@@ -4270,8 +5235,16 @@
       <c r="I129" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5159396596566841E-2</v>
+      </c>
+      <c r="K129" s="4">
+        <f t="shared" si="5"/>
+        <v>0.98484060340343316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>77</v>
       </c>
@@ -4299,8 +5272,16 @@
       <c r="I130" s="3">
         <v>1.127</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="4">
+        <f t="shared" si="4"/>
+        <v>0.33499294047707512</v>
+      </c>
+      <c r="K130" s="4">
+        <f t="shared" si="5"/>
+        <v>0.66500705952292494</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>78</v>
       </c>
@@ -4328,8 +5309,16 @@
       <c r="I131" s="3">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="4">
+        <f t="shared" si="4"/>
+        <v>3.7749869956156645E-2</v>
+      </c>
+      <c r="K131" s="4">
+        <f t="shared" si="5"/>
+        <v>0.9622501300438433</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>79</v>
       </c>
@@ -4357,8 +5346,16 @@
       <c r="I132" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>80</v>
       </c>
@@ -4386,8 +5383,16 @@
       <c r="I133" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4076688712194396E-2</v>
+      </c>
+      <c r="K133" s="4">
+        <f t="shared" si="5"/>
+        <v>0.97592331128780563</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>81</v>
       </c>
@@ -4415,8 +5420,16 @@
       <c r="I134" s="3">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="4">
+        <f t="shared" si="4"/>
+        <v>4.9045106635951546E-2</v>
+      </c>
+      <c r="K134" s="4">
+        <f t="shared" si="5"/>
+        <v>0.95095489336404848</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>82</v>
       </c>
@@ -4444,8 +5457,16 @@
       <c r="I135" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>83</v>
       </c>
@@ -4473,8 +5494,16 @@
       <c r="I136" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>84</v>
       </c>
@@ -4502,8 +5531,16 @@
       <c r="I137" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>85</v>
       </c>
@@ -4531,8 +5568,16 @@
       <c r="I138" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>86</v>
       </c>
@@ -4560,8 +5605,16 @@
       <c r="I139" s="3">
         <v>0.17100000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0828565059077062E-2</v>
+      </c>
+      <c r="K139" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94917143494092293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>87</v>
       </c>
@@ -4589,8 +5642,16 @@
       <c r="I140" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>88</v>
       </c>
@@ -4618,8 +5679,16 @@
       <c r="I141" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K141" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>89</v>
       </c>
@@ -4647,8 +5716,16 @@
       <c r="I142" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K142" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>90</v>
       </c>
@@ -4676,8 +5753,16 @@
       <c r="I143" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K143" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>91</v>
       </c>
@@ -4705,8 +5790,16 @@
       <c r="I144" s="3">
         <v>0.153</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5478189789700522E-2</v>
+      </c>
+      <c r="K144" s="4">
+        <f t="shared" si="5"/>
+        <v>0.95452181021029947</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>92</v>
       </c>
@@ -4734,8 +5827,16 @@
       <c r="I145" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K145" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>93</v>
       </c>
@@ -4763,8 +5864,14 @@
       <c r="I146" s="3">
         <v>3.3170000000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="4">
+        <v>1</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>94</v>
       </c>
@@ -4792,8 +5899,14 @@
       <c r="I147" s="3">
         <v>2.677</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="4">
+        <v>1</v>
+      </c>
+      <c r="K147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>95</v>
       </c>
@@ -4821,8 +5934,14 @@
       <c r="I148" s="3">
         <v>1.9610000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="4">
+        <v>1</v>
+      </c>
+      <c r="K148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>96</v>
       </c>
@@ -4850,8 +5969,14 @@
       <c r="I149" s="3">
         <v>2.5030000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="4">
+        <v>1</v>
+      </c>
+      <c r="K149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>141</v>
       </c>
@@ -4879,8 +6004,16 @@
       <c r="I150" s="3">
         <v>1.8939999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="4">
+        <f>I150/AVERAGE($I$146:$I$149)</f>
+        <v>0.72442149550583279</v>
+      </c>
+      <c r="K150" s="4">
+        <f>1-(I150/AVERAGE($I$146:$I$149))</f>
+        <v>0.27557850449416721</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>142</v>
       </c>
@@ -4908,8 +6041,16 @@
       <c r="I151" s="3">
         <v>0.93600000000000005</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="4">
+        <f t="shared" ref="J151:J193" si="6">I151/AVERAGE($I$146:$I$149)</f>
+        <v>0.35800344234079173</v>
+      </c>
+      <c r="K151" s="4">
+        <f t="shared" ref="K151:K193" si="7">1-(I151/AVERAGE($I$146:$I$149))</f>
+        <v>0.64199655765920827</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>143</v>
       </c>
@@ -4937,8 +6078,16 @@
       <c r="I152" s="3">
         <v>1.5469999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="4">
+        <f t="shared" si="6"/>
+        <v>0.59170013386880849</v>
+      </c>
+      <c r="K152" s="4">
+        <f t="shared" si="7"/>
+        <v>0.40829986613119151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>144</v>
       </c>
@@ -4966,8 +6115,16 @@
       <c r="I153" s="3">
         <v>0.81599999999999995</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="4">
+        <f t="shared" si="6"/>
+        <v>0.31210556511761328</v>
+      </c>
+      <c r="K153" s="4">
+        <f t="shared" si="7"/>
+        <v>0.68789443488238677</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>145</v>
       </c>
@@ -4995,8 +6152,16 @@
       <c r="I154" s="3">
         <v>0.17100000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="4">
+        <f t="shared" si="6"/>
+        <v>6.5404475043029264E-2</v>
+      </c>
+      <c r="K154" s="4">
+        <f t="shared" si="7"/>
+        <v>0.93459552495697074</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>146</v>
       </c>
@@ -5024,8 +6189,16 @@
       <c r="I155" s="3">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="4">
+        <f t="shared" si="6"/>
+        <v>0.71524192006119724</v>
+      </c>
+      <c r="K155" s="4">
+        <f t="shared" si="7"/>
+        <v>0.28475807993880276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>147</v>
       </c>
@@ -5053,8 +6226,16 @@
       <c r="I156" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>148</v>
       </c>
@@ -5082,8 +6263,16 @@
       <c r="I157" s="3">
         <v>0.74299999999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="4">
+        <f t="shared" si="6"/>
+        <v>0.28418435647351309</v>
+      </c>
+      <c r="K157" s="4">
+        <f t="shared" si="7"/>
+        <v>0.71581564352648686</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>149</v>
       </c>
@@ -5111,8 +6300,16 @@
       <c r="I158" s="3">
         <v>2.2970000000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="4">
+        <f t="shared" si="6"/>
+        <v>0.87856186651367374</v>
+      </c>
+      <c r="K158" s="4">
+        <f t="shared" si="7"/>
+        <v>0.12143813348632626</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>150</v>
       </c>
@@ -5140,8 +6337,16 @@
       <c r="I159" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>151</v>
       </c>
@@ -5169,8 +6374,16 @@
       <c r="I160" s="3">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="4">
+        <f t="shared" si="6"/>
+        <v>0.12086441002103653</v>
+      </c>
+      <c r="K160" s="4">
+        <f t="shared" si="7"/>
+        <v>0.87913558997896346</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>152</v>
       </c>
@@ -5198,8 +6411,16 @@
       <c r="I161" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="4">
+        <f t="shared" si="6"/>
+        <v>1.6064257028112452E-2</v>
+      </c>
+      <c r="K161" s="4">
+        <f t="shared" si="7"/>
+        <v>0.98393574297188757</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>153</v>
       </c>
@@ -5227,8 +6448,16 @@
       <c r="I162" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K162" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>154</v>
       </c>
@@ -5256,8 +6485,16 @@
       <c r="I163" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>155</v>
       </c>
@@ -5285,8 +6522,16 @@
       <c r="I164" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>156</v>
       </c>
@@ -5314,8 +6559,16 @@
       <c r="I165" s="3">
         <v>0.26500000000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1013578122011857</v>
+      </c>
+      <c r="K165" s="4">
+        <f t="shared" si="7"/>
+        <v>0.89864218779881433</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>157</v>
       </c>
@@ -5343,8 +6596,16 @@
       <c r="I166" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>158</v>
       </c>
@@ -5372,8 +6633,16 @@
       <c r="I167" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>159</v>
       </c>
@@ -5401,8 +6670,16 @@
       <c r="I168" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>160</v>
       </c>
@@ -5430,8 +6707,16 @@
       <c r="I169" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>161</v>
       </c>
@@ -5459,8 +6744,16 @@
       <c r="I170" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K170" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>162</v>
       </c>
@@ -5488,8 +6781,16 @@
       <c r="I171" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K171" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>163</v>
       </c>
@@ -5517,8 +6818,16 @@
       <c r="I172" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>164</v>
       </c>
@@ -5546,8 +6855,16 @@
       <c r="I173" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>165</v>
       </c>
@@ -5575,8 +6892,16 @@
       <c r="I174" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>166</v>
       </c>
@@ -5604,8 +6929,16 @@
       <c r="I175" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K175" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>167</v>
       </c>
@@ -5633,8 +6966,16 @@
       <c r="I176" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K176" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>168</v>
       </c>
@@ -5662,8 +7003,16 @@
       <c r="I177" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K177" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>169</v>
       </c>
@@ -5691,8 +7040,16 @@
       <c r="I178" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K178" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>170</v>
       </c>
@@ -5720,8 +7077,16 @@
       <c r="I179" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K179" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>171</v>
       </c>
@@ -5749,8 +7114,16 @@
       <c r="I180" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K180" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>172</v>
       </c>
@@ -5778,8 +7151,16 @@
       <c r="I181" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K181" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>173</v>
       </c>
@@ -5807,8 +7188,16 @@
       <c r="I182" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K182" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>174</v>
       </c>
@@ -5836,8 +7225,16 @@
       <c r="I183" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K183" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>175</v>
       </c>
@@ -5865,8 +7262,16 @@
       <c r="I184" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K184" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>176</v>
       </c>
@@ -5894,8 +7299,16 @@
       <c r="I185" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K185" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>177</v>
       </c>
@@ -5923,8 +7336,16 @@
       <c r="I186" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K186" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>178</v>
       </c>
@@ -5952,8 +7373,16 @@
       <c r="I187" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K187" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>179</v>
       </c>
@@ -5981,8 +7410,16 @@
       <c r="I188" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K188" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>180</v>
       </c>
@@ -6010,8 +7447,16 @@
       <c r="I189" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K189" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>181</v>
       </c>
@@ -6039,8 +7484,16 @@
       <c r="I190" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K190" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>182</v>
       </c>
@@ -6068,8 +7521,16 @@
       <c r="I191" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K191" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>183</v>
       </c>
@@ -6097,8 +7558,16 @@
       <c r="I192" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K192" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>184</v>
       </c>
@@ -6126,9 +7595,17 @@
       <c r="I193" s="3">
         <v>0</v>
       </c>
+      <c r="J193" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K193" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I193" xr:uid="{A6AE591F-3B1E-4E51-8C16-30F3512DCEDB}"/>
+  <autoFilter ref="A1:K193" xr:uid="{5F3914A6-8438-4DBF-A9A2-9BDB680084C0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Lactofen/Data Sheet_A92_Lactofen POST.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Lactofen/Data Sheet_A92_Lactofen POST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Lactofen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{D42ED746-3FCD-481B-8095-34E35B9637F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{366614C6-7F88-4731-95FA-AF3371D6C726}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{D42ED746-3FCD-481B-8095-34E35B9637F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4360C7E8-0C79-402B-B499-5D1BC78B1C5E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BAC4E19-4AD8-48D8-8C8E-2E087F05C852}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,12 +639,8 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -850,11 +846,11 @@
         <v>1.224</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" ref="J7:J49" si="0">I9/AVERAGE($I$2:$I$5)</f>
+        <f t="shared" ref="J9:J49" si="0">I9/AVERAGE($I$2:$I$5)</f>
         <v>0.49288590604026844</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" ref="K7:K49" si="1">1-(I9/AVERAGE($I$2:$I$5))</f>
+        <f t="shared" ref="K9:K49" si="1">1-(I9/AVERAGE($I$2:$I$5))</f>
         <v>0.50711409395973162</v>
       </c>
     </row>
@@ -2563,11 +2559,11 @@
         <v>2.8940000000000001</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" ref="J55:J97" si="2">I56/AVERAGE($I$50:$I$53)</f>
+        <f t="shared" ref="J56:J97" si="2">I56/AVERAGE($I$50:$I$53)</f>
         <v>0.81320688443976119</v>
       </c>
       <c r="K56" s="4">
-        <f t="shared" ref="K55:K97" si="3">1-(I56/AVERAGE($I$50:$I$53))</f>
+        <f t="shared" ref="K56:K97" si="3">1-(I56/AVERAGE($I$50:$I$53))</f>
         <v>0.18679311556023881</v>
       </c>
     </row>
@@ -4644,11 +4640,11 @@
         <v>2.2719999999999998</v>
       </c>
       <c r="J113" s="4">
-        <f t="shared" ref="J103:J145" si="4">I113/AVERAGE($I$98:$I$101)</f>
+        <f t="shared" ref="J113:J145" si="4">I113/AVERAGE($I$98:$I$101)</f>
         <v>0.67533625622352667</v>
       </c>
       <c r="K113" s="4">
-        <f t="shared" ref="K103:K145" si="5">1-(I113/AVERAGE($I$98:$I$101))</f>
+        <f t="shared" ref="K113:K145" si="5">1-(I113/AVERAGE($I$98:$I$101))</f>
         <v>0.32466374377647333</v>
       </c>
     </row>
